--- a/Financials/FactSet Research Systems.xlsx
+++ b/Financials/FactSet Research Systems.xlsx
@@ -5,24 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Financials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F74258-E88B-6E47-B22F-104472B9668C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9802BB0F-594F-884A-98DC-7D3F98E01D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1'!$B$106:$AB$106</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Sheet 1'!$B$19:$AB$19</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Sheet 1'!$B$3:$AB$3</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -564,11 +556,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -964,18 +957,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1010,12 +991,6 @@
     <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1025,7 +1000,6 @@
     <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1034,6 +1008,25 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2430,37 +2423,37 @@
     <v>Powered by Refinitiv</v>
     <v>474.13</v>
     <v>345.92</v>
-    <v>0.82730000000000004</v>
-    <v>-6.29</v>
-    <v>-1.5117999999999999E-2</v>
-    <v>0</v>
-    <v>0</v>
+    <v>0.82889999999999997</v>
+    <v>2.74</v>
+    <v>6.8149999999999999E-3</v>
+    <v>4.45</v>
+    <v>1.0993999999999999E-2</v>
     <v>USD</v>
     <v>FactSet Research Systems Inc. is a global financial data and analytics company. The Company provides financial data and market intelligence on securities, companies and industries to enable its clients to research investment ideas, as well as offering them the capabilities to analyze, monitor and manage their portfolios. The Company also offers technologies, such as a configurable desktop and mobile platform, comprehensive data feeds, cloud-based digital solutions, and application programming interfaces (APIs). Its solutions span investment research, portfolio construction and analysis, trade execution, performance measurement, risk management, and reporting across the investment lifecycle. The Company operates through three geographical segments: the Americas, EMEA and Asia Pacific. It primarily delivers insight and information through its three workflow solutions: Research &amp; Advisory; Analytics &amp; Trading; and Content &amp; Technology (CTS).</v>
-    <v>11627</v>
+    <v>11896</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
     <v>45 Glover Avenue, NORWALK, CT, 06850 US</v>
-    <v>420.64030000000002</v>
+    <v>405.66</v>
     <v>Professional &amp; Commercial Services</v>
     <v>Stock</v>
-    <v>45020.958333356248</v>
+    <v>45022.958333356248</v>
     <v>0</v>
-    <v>409.1</v>
-    <v>15674452379</v>
+    <v>399.74</v>
+    <v>15510960000</v>
     <v>FACTSET RESEARCH SYSTEMS INC.</v>
     <v>FACTSET RESEARCH SYSTEMS INC.</v>
-    <v>417.17</v>
-    <v>36.195099999999996</v>
-    <v>416.06</v>
-    <v>409.77</v>
-    <v>409.77</v>
-    <v>38251830</v>
+    <v>400.6</v>
+    <v>34.9754</v>
+    <v>402.04</v>
+    <v>404.78</v>
+    <v>409.23</v>
+    <v>38319490</v>
     <v>FDS</v>
     <v>FACTSET RESEARCH SYSTEMS INC. (XNYS:FDS)</v>
-    <v>288353</v>
-    <v>310723</v>
+    <v>205113</v>
+    <v>316827</v>
     <v>1984</v>
   </rv>
   <rv s="2">
@@ -3047,11 +3040,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Y101" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AA80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AC126" sqref="AC126"/>
+      <selection pane="bottomRight" activeCell="AJ101" sqref="AJ101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4709,15 +4702,15 @@
       </c>
       <c r="AI16" s="30">
         <f>AJ101/AB3</f>
-        <v>8.5007431991678466</v>
+        <v>8.4120761953520056</v>
       </c>
       <c r="AJ16" s="30">
         <f>AJ101/AB28</f>
-        <v>39.490504007134994</v>
+        <v>39.078598296369265</v>
       </c>
       <c r="AK16" s="31">
         <f>AJ101/AB106</f>
-        <v>32.17773895808228</v>
+        <v>31.842109044775324</v>
       </c>
     </row>
     <row r="17" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -10587,10 +10580,10 @@
       <c r="AB83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AI83" s="33" t="s">
+      <c r="AI83" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="AJ83" s="34"/>
+      <c r="AJ83" s="59"/>
     </row>
     <row r="84" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -10677,10 +10670,10 @@
       <c r="AB84" s="1">
         <v>12815000</v>
       </c>
-      <c r="AI84" s="35" t="s">
+      <c r="AI84" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="AJ84" s="36"/>
+      <c r="AJ84" s="61"/>
     </row>
     <row r="85" spans="1:36" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -11046,10 +11039,10 @@
       <c r="AB88" s="1">
         <v>-51156000</v>
       </c>
-      <c r="AI88" s="37" t="s">
+      <c r="AI88" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="AJ88" s="38">
+      <c r="AJ88" s="34">
         <f>AJ85/(AJ86+AJ87)</f>
         <v>1.3296814610731946E-2</v>
       </c>
@@ -11352,10 +11345,10 @@
       <c r="AB91" s="1">
         <v>-878000</v>
       </c>
-      <c r="AI91" s="37" t="s">
+      <c r="AI91" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="AJ91" s="38">
+      <c r="AJ91" s="34">
         <f>AJ89/AJ90</f>
         <v>0.10522459726687015</v>
       </c>
@@ -11445,10 +11438,10 @@
       <c r="AB92" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AI92" s="39" t="s">
+      <c r="AI92" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="AJ92" s="40">
+      <c r="AJ92" s="36">
         <f>AJ88*(1-AJ91)</f>
         <v>1.1897662648385442E-2</v>
       </c>
@@ -11538,10 +11531,10 @@
       <c r="AB93" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AI93" s="35" t="s">
+      <c r="AI93" s="60" t="s">
         <v>134</v>
       </c>
-      <c r="AJ93" s="36"/>
+      <c r="AJ93" s="61"/>
     </row>
     <row r="94" spans="1:36" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -11631,7 +11624,7 @@
       <c r="AI94" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="AJ94" s="41">
+      <c r="AJ94" s="37">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -11723,9 +11716,9 @@
       <c r="AI95" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="AJ95" s="42" cm="1">
+      <c r="AJ95" s="38" cm="1">
         <f t="array" ref="AJ95">_FV(A1,"Beta")</f>
-        <v>0.82730000000000004</v>
+        <v>0.82889999999999997</v>
       </c>
     </row>
     <row r="96" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -11816,7 +11809,7 @@
       <c r="AI96" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="AJ96" s="41">
+      <c r="AJ96" s="37">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -11905,12 +11898,12 @@
       <c r="AB97" s="1">
         <v>-18639000</v>
       </c>
-      <c r="AI97" s="39" t="s">
+      <c r="AI97" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="AJ97" s="40">
+      <c r="AJ97" s="36">
         <f>(AJ94)+((AJ95)*(AJ96-AJ94))</f>
-        <v>7.6565265000000007E-2</v>
+        <v>7.6634145000000001E-2</v>
       </c>
     </row>
     <row r="98" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -11998,10 +11991,10 @@
       <c r="AB98" s="1">
         <v>-125934000</v>
       </c>
-      <c r="AI98" s="35" t="s">
+      <c r="AI98" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="AJ98" s="36"/>
+      <c r="AJ98" s="61"/>
     </row>
     <row r="99" spans="1:36" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -12181,12 +12174,12 @@
       <c r="AB100" s="10">
         <v>1339234000</v>
       </c>
-      <c r="AI100" s="37" t="s">
+      <c r="AI100" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="AJ100" s="38">
+      <c r="AJ100" s="34">
         <f>AJ99/AJ103</f>
-        <v>0.12407210303622998</v>
+        <v>0.12521612338392835</v>
       </c>
     </row>
     <row r="101" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -12277,9 +12270,9 @@
       <c r="AI101" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="AJ101" s="43" cm="1">
+      <c r="AJ101" s="39" cm="1">
         <f t="array" ref="AJ101">_FV(A1,"Market cap",TRUE)</f>
-        <v>15674452379</v>
+        <v>15510960000</v>
       </c>
     </row>
     <row r="102" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -12367,12 +12360,12 @@
       <c r="AB102" s="10">
         <v>-178592000</v>
       </c>
-      <c r="AI102" s="37" t="s">
+      <c r="AI102" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="AJ102" s="38">
+      <c r="AJ102" s="34">
         <f>AJ101/AJ103</f>
-        <v>0.87592789696377005</v>
+        <v>0.8747838766160716</v>
       </c>
     </row>
     <row r="103" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -12460,12 +12453,12 @@
       <c r="AB103" s="1">
         <v>681865000</v>
       </c>
-      <c r="AI103" s="39" t="s">
+      <c r="AI103" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="AJ103" s="44">
+      <c r="AJ103" s="40">
         <f>AJ99+AJ101</f>
-        <v>17894683379</v>
+        <v>17731191000</v>
       </c>
     </row>
     <row r="104" spans="1:36" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -12553,10 +12546,10 @@
       <c r="AB104" s="11">
         <v>503273000</v>
       </c>
-      <c r="AI104" s="35" t="s">
+      <c r="AI104" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="AJ104" s="36"/>
+      <c r="AJ104" s="61"/>
     </row>
     <row r="105" spans="1:36" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -12678,7 +12671,7 @@
       </c>
       <c r="AJ105" s="26">
         <f>(AJ100*AJ92)+(AJ102*AJ97)</f>
-        <v>6.8541819577924545E-2</v>
+        <v>6.8528093638418733E-2</v>
       </c>
     </row>
     <row r="106" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -12766,33 +12759,33 @@
       <c r="AB106" s="1">
         <v>487121000</v>
       </c>
-      <c r="AC106" s="45">
+      <c r="AC106" s="41">
         <f>AB106*(1+$AJ$106)</f>
         <v>525188452.59099311</v>
       </c>
-      <c r="AD106" s="45">
+      <c r="AD106" s="41">
         <f t="shared" ref="AD106:AG106" si="29">AC106*(1+$AJ$106)</f>
         <v>566230794.26861453</v>
       </c>
-      <c r="AE106" s="45">
+      <c r="AE106" s="41">
         <f t="shared" si="29"/>
         <v>610480506.18081057</v>
       </c>
-      <c r="AF106" s="45">
+      <c r="AF106" s="41">
         <f t="shared" si="29"/>
         <v>658188237.37442255</v>
       </c>
-      <c r="AG106" s="45">
+      <c r="AG106" s="41">
         <f t="shared" si="29"/>
         <v>709624224.57719171</v>
       </c>
-      <c r="AH106" s="46" t="s">
+      <c r="AH106" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="AI106" s="47" t="s">
+      <c r="AI106" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="AJ106" s="48">
+      <c r="AJ106" s="44">
         <f>(SUM(AC4:AG4)/5)</f>
         <v>7.8147837171858914E-2</v>
       </c>
@@ -12826,151 +12819,151 @@
       <c r="Z107" s="13"/>
       <c r="AA107" s="13"/>
       <c r="AB107" s="13"/>
-      <c r="AC107" s="46"/>
-      <c r="AD107" s="46"/>
-      <c r="AE107" s="46"/>
-      <c r="AF107" s="46"/>
-      <c r="AG107" s="49">
+      <c r="AC107" s="42"/>
+      <c r="AD107" s="42"/>
+      <c r="AE107" s="42"/>
+      <c r="AF107" s="42"/>
+      <c r="AG107" s="45">
         <f>AG106*(1+AJ107)/(AJ108-AJ107)</f>
-        <v>16704970927.774256</v>
-      </c>
-      <c r="AH107" s="50" t="s">
+        <v>16710238592.889702</v>
+      </c>
+      <c r="AH107" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="AI107" s="51" t="s">
+      <c r="AI107" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="AJ107" s="52">
+      <c r="AJ107" s="48">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:36" ht="19" x14ac:dyDescent="0.25">
-      <c r="AC108" s="49">
+      <c r="AC108" s="45">
         <f t="shared" ref="AC108:AE108" si="30">AC107+AC106</f>
         <v>525188452.59099311</v>
       </c>
-      <c r="AD108" s="49">
+      <c r="AD108" s="45">
         <f t="shared" si="30"/>
         <v>566230794.26861453</v>
       </c>
-      <c r="AE108" s="49">
+      <c r="AE108" s="45">
         <f t="shared" si="30"/>
         <v>610480506.18081057</v>
       </c>
-      <c r="AF108" s="49">
+      <c r="AF108" s="45">
         <f>AF107+AF106</f>
         <v>658188237.37442255</v>
       </c>
-      <c r="AG108" s="49">
+      <c r="AG108" s="45">
         <f>AG107+AG106</f>
-        <v>17414595152.351448</v>
-      </c>
-      <c r="AH108" s="50" t="s">
+        <v>17419862817.466892</v>
+      </c>
+      <c r="AH108" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="AI108" s="53" t="s">
+      <c r="AI108" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="AJ108" s="54">
+      <c r="AJ108" s="50">
         <f>AJ105</f>
-        <v>6.8541819577924545E-2</v>
+        <v>6.8528093638418733E-2</v>
       </c>
     </row>
     <row r="109" spans="1:36" ht="19" x14ac:dyDescent="0.25">
-      <c r="AC109" s="55" t="s">
+      <c r="AC109" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="AD109" s="56"/>
+      <c r="AD109" s="63"/>
     </row>
     <row r="110" spans="1:36" ht="20" x14ac:dyDescent="0.25">
-      <c r="AC110" s="57" t="s">
+      <c r="AC110" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="AD110" s="43">
+      <c r="AD110" s="39">
         <f>NPV(AJ108,AC108,AD108,AE108,AF108,AG108)</f>
-        <v>14493987709.558676</v>
+        <v>14498636659.884541</v>
       </c>
     </row>
     <row r="111" spans="1:36" ht="20" x14ac:dyDescent="0.25">
-      <c r="AC111" s="57" t="s">
+      <c r="AC111" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="AD111" s="43">
+      <c r="AD111" s="39">
         <f>AB40</f>
         <v>536492000</v>
       </c>
     </row>
     <row r="112" spans="1:36" ht="20" x14ac:dyDescent="0.25">
-      <c r="AC112" s="57" t="s">
+      <c r="AC112" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="AD112" s="43">
+      <c r="AD112" s="39">
         <f>AJ99</f>
         <v>2220231000</v>
       </c>
     </row>
     <row r="113" spans="29:30" ht="20" x14ac:dyDescent="0.25">
-      <c r="AC113" s="57" t="s">
+      <c r="AC113" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="AD113" s="43">
+      <c r="AD113" s="39">
         <f>AD110+AD111-AD112</f>
-        <v>12810248709.558676</v>
+        <v>12814897659.884541</v>
       </c>
     </row>
     <row r="114" spans="29:30" ht="20" x14ac:dyDescent="0.25">
-      <c r="AC114" s="57" t="s">
+      <c r="AC114" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="AD114" s="58">
+      <c r="AD114" s="52">
         <f>AB34*(1+(5*AH16))</f>
         <v>37845598.304104172</v>
       </c>
     </row>
     <row r="115" spans="29:30" ht="20" x14ac:dyDescent="0.25">
-      <c r="AC115" s="59" t="s">
+      <c r="AC115" s="53" t="s">
         <v>156</v>
       </c>
-      <c r="AD115" s="60">
+      <c r="AD115" s="64">
         <f>AD113/AD114</f>
-        <v>338.48714998831099</v>
+        <v>338.60998990983916</v>
       </c>
     </row>
     <row r="116" spans="29:30" ht="20" x14ac:dyDescent="0.25">
-      <c r="AC116" s="57" t="s">
+      <c r="AC116" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="AD116" s="61" cm="1">
+      <c r="AD116" s="54" cm="1">
         <f t="array" ref="AD116">_FV(A1,"Price")</f>
-        <v>409.77</v>
+        <v>404.78</v>
       </c>
     </row>
     <row r="117" spans="29:30" ht="20" x14ac:dyDescent="0.25">
-      <c r="AC117" s="62" t="s">
+      <c r="AC117" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="AD117" s="63">
+      <c r="AD117" s="56">
         <f>AD115/AD116-1</f>
-        <v>-0.17395819608973084</v>
+        <v>-0.16347154031859479</v>
       </c>
     </row>
     <row r="118" spans="29:30" ht="20" x14ac:dyDescent="0.25">
-      <c r="AC118" s="62" t="s">
+      <c r="AC118" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="AD118" s="64" t="str">
+      <c r="AD118" s="57" t="str">
         <f>IF(AD115&gt;AD116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="AC109:AD109"/>
     <mergeCell ref="AI83:AJ83"/>
     <mergeCell ref="AI84:AJ84"/>
     <mergeCell ref="AI93:AJ93"/>
     <mergeCell ref="AI98:AJ98"/>
     <mergeCell ref="AI104:AJ104"/>
-    <mergeCell ref="AC109:AD109"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/FDS" display="ROIC.AI | FDS" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
